--- a/TP 7/ejercicio2.xlsx
+++ b/TP 7/ejercicio2.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Datos</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Chi-cuadrado</t>
+  </si>
+  <si>
+    <t>La mejor tirada</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -141,10 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -308,6 +317,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Frecuencia esperada</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -318,11 +371,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1396808576"/>
-        <c:axId val="-1396807488"/>
+        <c:axId val="731129376"/>
+        <c:axId val="731128288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1396808576"/>
+        <c:axId val="731129376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +418,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1396807488"/>
+        <c:crossAx val="731128288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -373,7 +426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1396807488"/>
+        <c:axId val="731128288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +477,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1396808576"/>
+        <c:crossAx val="731129376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1338,19 +1391,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" customWidth="1"/>
     <col min="18" max="18" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1361,8 +1415,11 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -1371,7 +1428,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1392,7 +1449,10 @@
       </c>
       <c r="L2">
         <f ca="1">RAND()</f>
-        <v>0.24169449697086454</v>
+        <v>0.3709859248770101</v>
+      </c>
+      <c r="M2">
+        <v>0.99991809049235736</v>
       </c>
       <c r="O2" t="s">
         <v>7</v>
@@ -1409,8 +1469,11 @@
       <c r="S2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1434,8 +1497,11 @@
         <v>0.1</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L51" ca="1" si="0">RAND()</f>
-        <v>0.13879509409871471</v>
+        <f ca="1">RAND()</f>
+        <v>0.52747716491688357</v>
+      </c>
+      <c r="M3">
+        <v>2.3865514401349763E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1445,19 +1511,23 @@
         <v>0.1</v>
       </c>
       <c r="Q3">
-        <f ca="1">FREQUENCY($L$2:$L$51,P3)</f>
-        <v>4</v>
+        <f>FREQUENCY($M$2:$M$51,P3)</f>
+        <v>3</v>
       </c>
       <c r="R3">
-        <f ca="1">Q3/$Q$9</f>
-        <v>0.08</v>
+        <f>Q3/$Q$9</f>
+        <v>0.06</v>
       </c>
       <c r="S3">
-        <f ca="1">IFERROR((E3-Q3)^2/Q3,0)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <f>IFERROR((E3-Q3)^2/Q3,0)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="T3">
+        <f>E3-Q3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1470,20 +1540,23 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F8" si="1">E4/$E$9</f>
+        <f t="shared" ref="F4:F8" si="0">E4/$E$9</f>
         <v>0.4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G8" si="2">FREQUENCY($A$2:$A$51,D4)</f>
+        <f t="shared" ref="G4:G8" si="1">FREQUENCY($A$2:$A$51,D4)</f>
         <v>25</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H8" si="3">G4/$E$9</f>
+        <f t="shared" ref="H4:H8" si="2">G4/$E$9</f>
         <v>0.5</v>
       </c>
       <c r="L4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99486554933676974</v>
+        <f t="shared" ref="L3:M51" ca="1" si="3">RAND()</f>
+        <v>0.59685313025954012</v>
+      </c>
+      <c r="M4">
+        <v>0.3923249750563752</v>
       </c>
       <c r="O4">
         <f>P3</f>
@@ -1494,24 +1567,28 @@
         <v>0.5</v>
       </c>
       <c r="Q4">
-        <f ca="1">FREQUENCY($L$2:$L$51,P4)-SUM($Q$3:Q3)</f>
-        <v>26</v>
+        <f>FREQUENCY($M$2:$M$51,P4)-SUM($Q$3:Q3)</f>
+        <v>22</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R8" ca="1" si="4">Q4/$Q$9</f>
-        <v>0.52</v>
+        <f t="shared" ref="R4:R8" si="4">Q4/$Q$9</f>
+        <v>0.44</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S8" ca="1" si="5">IFERROR((E4-Q4)^2/Q4,0)</f>
-        <v>1.3846153846153846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" ref="S4:S8" si="5">IFERROR((E4-Q4)^2/Q4,0)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T8" si="6">E4-Q4</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D8" si="6">D4+1</f>
+        <f t="shared" ref="D5:D8" si="7">D4+1</f>
         <v>2</v>
       </c>
       <c r="E5">
@@ -1519,48 +1596,55 @@
         <v>14</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.78</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62984852532155089</v>
+      </c>
+      <c r="M5">
+        <v>0.74833712125910001</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O8" si="8">P4</f>
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P8" si="9">H5</f>
+        <v>0.78</v>
+      </c>
+      <c r="Q5">
+        <f>FREQUENCY($M$2:$M$51,P5)-SUM($Q$3:Q4)</f>
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0.78</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35863947386279993</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O8" si="7">P4</f>
-        <v>0.5</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P8" si="8">H5</f>
-        <v>0.78</v>
-      </c>
-      <c r="Q5">
-        <f ca="1">FREQUENCY($L$2:$L$51,P5)-SUM($Q$3:Q4)</f>
-        <v>11</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.22</v>
-      </c>
       <c r="S5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E6">
@@ -1568,48 +1652,55 @@
         <v>8</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.94</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.51996826695505183</v>
+      </c>
+      <c r="M6">
+        <v>0.87286174655684368</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>0.78</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="9"/>
+        <v>0.94</v>
+      </c>
+      <c r="Q6">
+        <f>FREQUENCY($M$2:$M$51,P6)-SUM($Q$3:Q5)</f>
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0.94</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8635340585669451</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="7"/>
-        <v>0.78</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="8"/>
-        <v>0.94</v>
-      </c>
-      <c r="Q6">
-        <f ca="1">FREQUENCY($L$2:$L$51,P6)-SUM($Q$3:Q5)</f>
-        <v>8</v>
-      </c>
-      <c r="R6">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.16</v>
-      </c>
       <c r="S6">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="E7">
@@ -1617,92 +1708,106 @@
         <v>2</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.98</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.51400620004989317</v>
+      </c>
+      <c r="M7">
+        <v>0.79630588365484001</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>0.94</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="9"/>
+        <v>0.98</v>
+      </c>
+      <c r="Q7">
+        <f>FREQUENCY($M$2:$M$51,P7)-SUM($Q$3:Q6)</f>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
-      <c r="G7">
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>FREQUENCY($A$2:$A$51,D8)-SUM($E$3:E7)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0.98</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.58538493307709782</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="7"/>
-        <v>0.94</v>
-      </c>
-      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.37851346346695991</v>
+      </c>
+      <c r="M8">
+        <v>0.36232072428264595</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="8"/>
         <v>0.98</v>
       </c>
-      <c r="Q7">
-        <f ca="1">FREQUENCY($L$2:$L$51,P7)-SUM($Q$3:Q6)</f>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f>FREQUENCY($M$2:$M$51,P8)-SUM($Q$3:Q7)</f>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R7">
-        <f t="shared" ca="1" si="4"/>
+      <c r="T8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <f>FREQUENCY($A$2:$A$51,D8)-SUM($E$3:E7)</f>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88632450854474065</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="7"/>
-        <v>0.98</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <f ca="1">FREQUENCY($L$2:$L$51,P8)-SUM($Q$3:Q7)</f>
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="S8">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1714,394 +1819,527 @@
         <v>50</v>
       </c>
       <c r="L9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23057682357440767</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21817681749373041</v>
+      </c>
+      <c r="M9">
+        <v>0.31538973152295247</v>
       </c>
       <c r="Q9">
-        <f ca="1">SUM(Q3:Q8)</f>
+        <f>SUM(Q3:Q8)</f>
         <v>50</v>
       </c>
       <c r="S9">
-        <f ca="1">SUM(S3:S8)</f>
-        <v>2.4527972027972029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+        <f>SUM(S3:S8)</f>
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="T9">
+        <f>SUMSQ(T3:T8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35729303369985455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.84225236138182868</v>
+      </c>
+      <c r="M10">
+        <v>0.48103454950136371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="L11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.60728644740088844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.58374279070883062</v>
+      </c>
+      <c r="M11">
+        <v>0.87651919086022378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="L12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68585046716234754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4077014240993756</v>
+      </c>
+      <c r="M12">
+        <v>0.86183121142169361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="L13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34336050382111938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.91502159180845744</v>
+      </c>
+      <c r="M13">
+        <v>0.44886342514702182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="L14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32241394782992638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.57716719015215623</v>
+      </c>
+      <c r="M14">
+        <v>0.55676737385107933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="L15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17613505171680499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8944175729234658</v>
+      </c>
+      <c r="M15">
+        <v>0.38281468624622694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="L16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81187095649792407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.57762097416150893</v>
+      </c>
+      <c r="M16">
+        <v>0.3185837661375357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="L17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70815041501969744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.67804928490675531</v>
+      </c>
+      <c r="M17">
+        <v>0.21686641109045446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="L18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34586019074988728</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.58339890914065018</v>
+      </c>
+      <c r="M18">
+        <v>0.57733354107032153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="L19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64553389555148533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.70466534966292871</v>
+      </c>
+      <c r="M19">
+        <v>0.30441253099402243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="L20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20051861531615278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.245526304388195</v>
+      </c>
+      <c r="M20">
+        <v>9.9622370735256593E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="L21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1837029220719497E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95837501049164897</v>
+      </c>
+      <c r="M21">
+        <v>0.89490845633988247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="L22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17977286586868035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50729684977725953</v>
+      </c>
+      <c r="M22">
+        <v>0.33722250216630589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="L23">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.1622638708658344E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35252840194948842</v>
+      </c>
+      <c r="M23">
+        <v>0.10103397355884403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="L24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78909284811673819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99322587323759515</v>
+      </c>
+      <c r="M24">
+        <v>7.4855359326475468E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="L25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44088335911193233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.58515158773603837</v>
+      </c>
+      <c r="M25">
+        <v>0.68836262617079524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="L26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66720135952112591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.7649025295975489</v>
+      </c>
+      <c r="M26">
+        <v>0.64228212937503004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.1726113929474109E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.96268910649793182</v>
+      </c>
+      <c r="M27">
+        <v>0.5843968514632254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="L28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.87349737337071098</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.65016126808692321</v>
+      </c>
+      <c r="M28">
+        <v>0.94174068641009367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23860798120092164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.90021410497593557</v>
+      </c>
+      <c r="M29">
+        <v>0.45356359529393731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59571691058154386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.86617584087214317</v>
+      </c>
+      <c r="M30">
+        <v>0.75958246440747612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="L31">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13510063392218696</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18653696824011445</v>
+      </c>
+      <c r="M31">
+        <v>0.36527825777761314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="L32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.85717976146172781</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95206625820906809</v>
+      </c>
+      <c r="M32">
+        <v>0.68450983940431998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="L33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.8001048464605931</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30034231263229616</v>
+      </c>
+      <c r="M33">
+        <v>0.19621417592134971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="L34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27907803446279511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.91276149599437451</v>
+      </c>
+      <c r="M34">
+        <v>0.77609669738968823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="L35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52690267932203394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1734401804288902</v>
+      </c>
+      <c r="M35">
+        <v>0.40337984020806505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="L36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45574094929205744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.55113894088409676</v>
+      </c>
+      <c r="M36">
+        <v>0.16313443611696876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="L37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68865594042632894</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.61507409929687673</v>
+      </c>
+      <c r="M37">
+        <v>0.38225236484588132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="L38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56945560622184044</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15851329162087002</v>
+      </c>
+      <c r="M38">
+        <v>0.52533871393726761</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.7995375324762406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.17180261701825006</v>
+      </c>
+      <c r="M39">
+        <v>0.6773126930936938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="L40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29834284736494443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30173793007873684</v>
+      </c>
+      <c r="M40">
+        <v>0.76729317225244986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="L41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43412208001775865</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15895918436505974</v>
+      </c>
+      <c r="M41">
+        <v>0.20244776508982631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="L42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31210806922568957</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.90038722897130352</v>
+      </c>
+      <c r="M42">
+        <v>0.93847896352539317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="L43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3308333841386728</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.91765203188093936</v>
+      </c>
+      <c r="M43">
+        <v>0.3799140675909235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="L44">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8599207151745527E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.40597698527573312</v>
+      </c>
+      <c r="M44">
+        <v>0.71806291253319177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5</v>
       </c>
       <c r="L45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72164180310262993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.44742760184718278</v>
+      </c>
+      <c r="M45">
+        <v>0.88179846287926178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="L46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22062045697157884</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26766023923871685</v>
+      </c>
+      <c r="M46">
+        <v>0.97890527746418865</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="L47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42390107183208026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48750953933312824</v>
+      </c>
+      <c r="M47">
+        <v>0.89822843555044629</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4281625406305456</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.73745549331601268</v>
+      </c>
+      <c r="M48">
+        <v>0.40134035609870922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="L49">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24111849402608854</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.44299902012325942</v>
+      </c>
+      <c r="M49">
+        <v>0.2780390052808277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="L50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39576237793788027</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28432166212409349</v>
+      </c>
+      <c r="M50">
+        <v>0.63434858241705905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="L51">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35822614203161618</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21149803495799646</v>
+      </c>
+      <c r="M51">
+        <v>0.37078909375619751</v>
       </c>
     </row>
   </sheetData>

--- a/TP 7/ejercicio2.xlsx
+++ b/TP 7/ejercicio2.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Datos</t>
   </si>
@@ -100,6 +100,9 @@
   <si>
     <t>Error</t>
   </si>
+  <si>
+    <t>k =</t>
+  </si>
 </sst>
 </file>
 
@@ -150,10 +153,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,11 +374,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="731129376"/>
-        <c:axId val="731128288"/>
+        <c:axId val="-144583488"/>
+        <c:axId val="-144582944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="731129376"/>
+        <c:axId val="-144583488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,7 +421,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731128288"/>
+        <c:crossAx val="-144582944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -426,7 +429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="731128288"/>
+        <c:axId val="-144582944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +480,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731129376"/>
+        <c:crossAx val="-144583488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1391,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1408,25 +1411,25 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="L1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -1449,7 +1452,7 @@
       </c>
       <c r="L2">
         <f ca="1">RAND()</f>
-        <v>0.3709859248770101</v>
+        <v>0.51888151063228061</v>
       </c>
       <c r="M2">
         <v>0.99991809049235736</v>
@@ -1498,7 +1501,7 @@
       </c>
       <c r="L3">
         <f ca="1">RAND()</f>
-        <v>0.52747716491688357</v>
+        <v>0.90042433001722055</v>
       </c>
       <c r="M3">
         <v>2.3865514401349763E-2</v>
@@ -1552,8 +1555,8 @@
         <v>0.5</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L3:M51" ca="1" si="3">RAND()</f>
-        <v>0.59685313025954012</v>
+        <f t="shared" ref="L4:L51" ca="1" si="3">RAND()</f>
+        <v>0.30459205828525004</v>
       </c>
       <c r="M4">
         <v>0.3923249750563752</v>
@@ -1609,7 +1612,7 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62984852532155089</v>
+        <v>1.8926694309173708E-4</v>
       </c>
       <c r="M5">
         <v>0.74833712125910001</v>
@@ -1665,7 +1668,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51996826695505183</v>
+        <v>0.58755735583094737</v>
       </c>
       <c r="M6">
         <v>0.87286174655684368</v>
@@ -1721,7 +1724,7 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51400620004989317</v>
+        <v>0.24518366563298688</v>
       </c>
       <c r="M7">
         <v>0.79630588365484001</v>
@@ -1777,7 +1780,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37851346346695991</v>
+        <v>0.79975509855573945</v>
       </c>
       <c r="M8">
         <v>0.36232072428264595</v>
@@ -1820,7 +1823,7 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21817681749373041</v>
+        <v>0.71785067998300733</v>
       </c>
       <c r="M9">
         <v>0.31538973152295247</v>
@@ -1844,7 +1847,7 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84225236138182868</v>
+        <v>0.76527097411482181</v>
       </c>
       <c r="M10">
         <v>0.48103454950136371</v>
@@ -1856,7 +1859,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58374279070883062</v>
+        <v>0.69728478074553779</v>
       </c>
       <c r="M11">
         <v>0.87651919086022378</v>
@@ -1868,7 +1871,7 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4077014240993756</v>
+        <v>1.5812354845178289E-3</v>
       </c>
       <c r="M12">
         <v>0.86183121142169361</v>
@@ -1880,7 +1883,7 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91502159180845744</v>
+        <v>0.453805435554134</v>
       </c>
       <c r="M13">
         <v>0.44886342514702182</v>
@@ -1892,7 +1895,7 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57716719015215623</v>
+        <v>0.60246653862247479</v>
       </c>
       <c r="M14">
         <v>0.55676737385107933</v>
@@ -1904,7 +1907,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8944175729234658</v>
+        <v>0.38459861101046899</v>
       </c>
       <c r="M15">
         <v>0.38281468624622694</v>
@@ -1916,7 +1919,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57762097416150893</v>
+        <v>0.3417359176435536</v>
       </c>
       <c r="M16">
         <v>0.3185837661375357</v>
@@ -1928,7 +1931,7 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67804928490675531</v>
+        <v>0.3325506460342903</v>
       </c>
       <c r="M17">
         <v>0.21686641109045446</v>
@@ -1940,7 +1943,7 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58339890914065018</v>
+        <v>0.93022505672661393</v>
       </c>
       <c r="M18">
         <v>0.57733354107032153</v>
@@ -1952,7 +1955,7 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70466534966292871</v>
+        <v>0.47272381771942962</v>
       </c>
       <c r="M19">
         <v>0.30441253099402243</v>
@@ -1964,7 +1967,7 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.245526304388195</v>
+        <v>0.87783892062608437</v>
       </c>
       <c r="M20">
         <v>9.9622370735256593E-2</v>
@@ -1976,7 +1979,7 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95837501049164897</v>
+        <v>0.9988080209758915</v>
       </c>
       <c r="M21">
         <v>0.89490845633988247</v>
@@ -1988,7 +1991,7 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50729684977725953</v>
+        <v>0.79605778506154334</v>
       </c>
       <c r="M22">
         <v>0.33722250216630589</v>
@@ -2000,7 +2003,7 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35252840194948842</v>
+        <v>0.12894451637429771</v>
       </c>
       <c r="M23">
         <v>0.10103397355884403</v>
@@ -2012,7 +2015,7 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99322587323759515</v>
+        <v>0.83161051187219925</v>
       </c>
       <c r="M24">
         <v>7.4855359326475468E-2</v>
@@ -2024,7 +2027,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58515158773603837</v>
+        <v>0.12625565646071746</v>
       </c>
       <c r="M25">
         <v>0.68836262617079524</v>
@@ -2036,7 +2039,7 @@
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7649025295975489</v>
+        <v>0.45838480214719557</v>
       </c>
       <c r="M26">
         <v>0.64228212937503004</v>
@@ -2048,7 +2051,7 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96268910649793182</v>
+        <v>0.19010688319868718</v>
       </c>
       <c r="M27">
         <v>0.5843968514632254</v>
@@ -2060,7 +2063,7 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65016126808692321</v>
+        <v>0.75531186780298865</v>
       </c>
       <c r="M28">
         <v>0.94174068641009367</v>
@@ -2072,7 +2075,7 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90021410497593557</v>
+        <v>0.11117776787466394</v>
       </c>
       <c r="M29">
         <v>0.45356359529393731</v>
@@ -2084,7 +2087,7 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86617584087214317</v>
+        <v>0.3819854624472383</v>
       </c>
       <c r="M30">
         <v>0.75958246440747612</v>
@@ -2096,7 +2099,7 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18653696824011445</v>
+        <v>0.18759200234955098</v>
       </c>
       <c r="M31">
         <v>0.36527825777761314</v>
@@ -2108,7 +2111,7 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95206625820906809</v>
+        <v>0.84280937958770585</v>
       </c>
       <c r="M32">
         <v>0.68450983940431998</v>
@@ -2120,7 +2123,7 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30034231263229616</v>
+        <v>0.84136277917869462</v>
       </c>
       <c r="M33">
         <v>0.19621417592134971</v>
@@ -2132,7 +2135,7 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91276149599437451</v>
+        <v>0.38651983330390804</v>
       </c>
       <c r="M34">
         <v>0.77609669738968823</v>
@@ -2144,7 +2147,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1734401804288902</v>
+        <v>0.91397932277160876</v>
       </c>
       <c r="M35">
         <v>0.40337984020806505</v>
@@ -2156,7 +2159,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55113894088409676</v>
+        <v>0.48997379272002595</v>
       </c>
       <c r="M36">
         <v>0.16313443611696876</v>
@@ -2168,7 +2171,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61507409929687673</v>
+        <v>6.0304953095173586E-2</v>
       </c>
       <c r="M37">
         <v>0.38225236484588132</v>
@@ -2180,7 +2183,7 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15851329162087002</v>
+        <v>0.99821366798964328</v>
       </c>
       <c r="M38">
         <v>0.52533871393726761</v>
@@ -2192,7 +2195,7 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17180261701825006</v>
+        <v>0.88644229611019232</v>
       </c>
       <c r="M39">
         <v>0.6773126930936938</v>
@@ -2204,7 +2207,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30173793007873684</v>
+        <v>0.5140735026023231</v>
       </c>
       <c r="M40">
         <v>0.76729317225244986</v>
@@ -2216,7 +2219,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15895918436505974</v>
+        <v>0.94813128108397871</v>
       </c>
       <c r="M41">
         <v>0.20244776508982631</v>
@@ -2228,7 +2231,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90038722897130352</v>
+        <v>0.27184095276619125</v>
       </c>
       <c r="M42">
         <v>0.93847896352539317</v>
@@ -2240,7 +2243,7 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91765203188093936</v>
+        <v>0.92210022296979588</v>
       </c>
       <c r="M43">
         <v>0.3799140675909235</v>
@@ -2252,7 +2255,7 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40597698527573312</v>
+        <v>1.9682089828346627E-2</v>
       </c>
       <c r="M44">
         <v>0.71806291253319177</v>
@@ -2264,7 +2267,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44742760184718278</v>
+        <v>0.28233091828348789</v>
       </c>
       <c r="M45">
         <v>0.88179846287926178</v>
@@ -2276,7 +2279,7 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26766023923871685</v>
+        <v>0.7919805710136566</v>
       </c>
       <c r="M46">
         <v>0.97890527746418865</v>
@@ -2288,7 +2291,7 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48750953933312824</v>
+        <v>0.86949118445238549</v>
       </c>
       <c r="M47">
         <v>0.89822843555044629</v>
@@ -2300,7 +2303,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73745549331601268</v>
+        <v>0.52282244849298676</v>
       </c>
       <c r="M48">
         <v>0.40134035609870922</v>
@@ -2312,7 +2315,7 @@
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44299902012325942</v>
+        <v>0.93902233501673948</v>
       </c>
       <c r="M49">
         <v>0.2780390052808277</v>
@@ -2324,7 +2327,7 @@
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28432166212409349</v>
+        <v>4.6918418413999241E-4</v>
       </c>
       <c r="M50">
         <v>0.63434858241705905</v>
@@ -2336,10 +2339,19 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21149803495799646</v>
+        <v>0.91608920258660576</v>
       </c>
       <c r="M51">
         <v>0.37078909375619751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53">
+        <f>AVERAGE(M2:M51)</f>
+        <v>0.53474169203854105</v>
       </c>
     </row>
   </sheetData>
